--- a/Set ID.xlsx
+++ b/Set ID.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Cards by archetype" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Cards by ID" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t xml:space="preserve">Number</t>
   </si>
@@ -69,6 +69,9 @@
     <t xml:space="preserve">Scuba Pony</t>
   </si>
   <si>
+    <t xml:space="preserve">Hazmanimal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bunnies</t>
   </si>
   <si>
@@ -130,21 +133,33 @@
   </si>
   <si>
     <t xml:space="preserve">Shira's cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZPD Officer – Hopps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZPD Officer – Wilde</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -162,26 +177,24 @@
       <family val="0"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <name val="Lohit Hindi"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Hindi"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -207,7 +220,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -231,33 +244,33 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -265,22 +278,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Result" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Result2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading1" xfId="23" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -290,18 +295,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.78"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.41"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="11.52"/>
@@ -487,191 +492,187 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
-        <v>90000701</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A14" s="3" t="n">
+        <v>90000675</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D15" s="3" t="str">
-        <f aca="false">DEC2HEX(C15)</f>
-        <v>7D0</v>
+      <c r="C14" s="4" t="n">
+        <v>1082</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f aca="false">DEC2HEX(C14)</f>
+        <v>43A</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
-        <v>90000801</v>
+        <v>90000701</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="D16" s="3" t="str">
         <f aca="false">DEC2HEX(C16)</f>
-        <v>640</v>
+        <v>7D0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
-        <v>90000851</v>
+        <v>90000801</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>1449</v>
+        <v>1600</v>
       </c>
       <c r="D17" s="3" t="str">
         <f aca="false">DEC2HEX(C17)</f>
-        <v>5A9</v>
-      </c>
-      <c r="F17" s="5"/>
+        <v>640</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
-        <v>90000901</v>
+        <v>90000851</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="3" t="n">
+        <v>1449</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f aca="false">DEC2HEX(C18)</f>
+        <v>5A9</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
-        <v>90001001</v>
+        <v>90000901</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="3" t="n">
-        <v>1991</v>
-      </c>
-      <c r="D19" s="3" t="str">
-        <f aca="false">DEC2HEX(C19)</f>
-        <v>7C7</v>
-      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
-        <v>90001101</v>
+        <v>90001001</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>1199</v>
+        <v>1991</v>
       </c>
       <c r="D20" s="3" t="str">
         <f aca="false">DEC2HEX(C20)</f>
-        <v>4AF</v>
+        <v>7C7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
-        <v>90001201</v>
+        <v>90001101</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="3" t="n">
-        <f aca="false">HEX2DEC(D21)</f>
-        <v>5321</v>
-      </c>
-      <c r="D21" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f aca="false">DEC2HEX(C21)</f>
+        <v>4AF</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
+        <v>90001201</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C22" s="3" t="n">
         <f aca="false">HEX2DEC(D22)</f>
-        <v>9417</v>
+        <v>5321</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <f aca="false">HEX2DEC(D23)</f>
+        <v>9417</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="4" t="n">
-        <f aca="false">HEX2DEC(D23)</f>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <f aca="false">HEX2DEC(D24)</f>
         <v>1225</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="D24" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
         <v>90001251</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="3" t="n">
-        <v>2512</v>
-      </c>
-      <c r="D24" s="3" t="str">
-        <f aca="false">DEC2HEX(C24)</f>
-        <v>9D0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="6" t="n">
-        <v>2820560</v>
+      <c r="C25" s="3" t="n">
+        <v>2512</v>
       </c>
       <c r="D25" s="3" t="str">
         <f aca="false">DEC2HEX(C25)</f>
+        <v>9D0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>2820560</v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <f aca="false">DEC2HEX(C26)</f>
         <v>2B09D0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
         <v>90001301</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="2" t="n">
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2" t="n">
         <v>2100</v>
       </c>
-      <c r="D26" s="2" t="str">
-        <f aca="false">DEC2HEX(C26)</f>
+      <c r="D27" s="2" t="str">
+        <f aca="false">DEC2HEX(C27)</f>
         <v>834</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>6196</v>
-      </c>
-      <c r="D27" s="1" t="str">
-        <f aca="false">DEC2HEX(C27)</f>
-        <v>1834</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -679,11 +680,11 @@
         <v>31</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>10292</v>
+        <v>6196</v>
       </c>
       <c r="D28" s="1" t="str">
         <f aca="false">DEC2HEX(C28)</f>
-        <v>2834</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,64 +692,73 @@
         <v>32</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>14388</v>
+        <v>10292</v>
       </c>
       <c r="D29" s="1" t="str">
         <f aca="false">DEC2HEX(C29)</f>
-        <v>3834</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>90001401</v>
-      </c>
       <c r="B30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>1147</v>
+        <v>14388</v>
       </c>
       <c r="D30" s="1" t="str">
         <f aca="false">DEC2HEX(C30)</f>
-        <v>47B</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>90001501</v>
+        <v>90001401</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>1196</v>
+        <v>1147</v>
       </c>
       <c r="D31" s="1" t="str">
         <f aca="false">DEC2HEX(C31)</f>
+        <v>47B</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>90001501</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>1196</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f aca="false">DEC2HEX(C32)</f>
         <v>4AC</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
         <v>90001601</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="n">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
         <v>90001701</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -766,20 +776,60 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="18.24"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="6" width="11.52"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
+        <v>90000100</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>90000101</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>90000102</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>90000103</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -794,7 +844,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -805,7 +855,7 @@
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
